--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A6/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1379" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4D95C5-15A9-444B-9BC6-F6C9253D46F8}"/>
+  <xr:revisionPtr revIDLastSave="1430" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136B07A6-3D06-40E4-A3E9-968761417917}"/>
   <bookViews>
-    <workbookView xWindow="9936" yWindow="660" windowWidth="13104" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12684" yWindow="612" windowWidth="10356" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD Profit" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -74,11 +74,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -145,6 +147,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2991,7 +2997,16 @@
         <v>0</v>
       </c>
       <c r="B169" s="4">
-        <v>46021</v>
+        <v>45656</v>
+      </c>
+      <c r="C169" s="4">
+        <v>45779</v>
+      </c>
+      <c r="D169" s="4">
+        <v>45786</v>
+      </c>
+      <c r="E169" s="4">
+        <v>45793</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3001,6 +3016,15 @@
       <c r="B170" s="6">
         <v>19000</v>
       </c>
+      <c r="C170" s="6">
+        <v>-422300</v>
+      </c>
+      <c r="D170" s="6">
+        <v>-422300</v>
+      </c>
+      <c r="E170" s="6">
+        <v>-477500</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
@@ -3009,6 +3033,15 @@
       <c r="B171" s="7">
         <v>361000</v>
       </c>
+      <c r="C171" s="7">
+        <v>40700</v>
+      </c>
+      <c r="D171" s="7">
+        <v>104100</v>
+      </c>
+      <c r="E171" s="7">
+        <v>154500</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
@@ -3017,6 +3050,15 @@
       <c r="B172" s="6">
         <v>724000</v>
       </c>
+      <c r="C172" s="6">
+        <v>327300</v>
+      </c>
+      <c r="D172" s="6">
+        <v>328500</v>
+      </c>
+      <c r="E172" s="6">
+        <v>328500</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
@@ -3025,6 +3067,196 @@
       <c r="B173" s="8">
         <f>B170+B171-B172</f>
         <v>-344000</v>
+      </c>
+      <c r="C173" s="8">
+        <f>C170+C171-C172</f>
+        <v>-708900</v>
+      </c>
+      <c r="D173" s="8">
+        <f>D170+D171-D172</f>
+        <v>-646700</v>
+      </c>
+      <c r="E173" s="8">
+        <f>E170+E171-E172</f>
+        <v>-651500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="4">
+        <v>45800</v>
+      </c>
+      <c r="C175" s="4">
+        <v>45807</v>
+      </c>
+      <c r="D175" s="4">
+        <v>45821</v>
+      </c>
+      <c r="E175" s="4">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="6">
+        <v>-477500</v>
+      </c>
+      <c r="C176" s="6">
+        <v>-478000</v>
+      </c>
+      <c r="D176" s="6">
+        <v>-478000</v>
+      </c>
+      <c r="E176" s="6">
+        <v>-629000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="7">
+        <v>159600</v>
+      </c>
+      <c r="C177" s="7">
+        <v>161000</v>
+      </c>
+      <c r="D177" s="7">
+        <v>202000</v>
+      </c>
+      <c r="E177" s="7">
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="6">
+        <v>329600</v>
+      </c>
+      <c r="C178" s="6">
+        <v>338000</v>
+      </c>
+      <c r="D178" s="6">
+        <v>363000</v>
+      </c>
+      <c r="E178" s="6">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="8">
+        <f>B176+B177-B178</f>
+        <v>-647500</v>
+      </c>
+      <c r="C179" s="8">
+        <f>C176+C177-C178</f>
+        <v>-655000</v>
+      </c>
+      <c r="D179" s="8">
+        <f>D176+D177-D178</f>
+        <v>-639000</v>
+      </c>
+      <c r="E179" s="8">
+        <f>E176+E177-E178</f>
+        <v>-788000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="4">
+        <v>45835</v>
+      </c>
+      <c r="C181" s="4">
+        <v>45842</v>
+      </c>
+      <c r="D181" s="4">
+        <v>45856</v>
+      </c>
+      <c r="E181" s="4">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="6">
+        <v>-629000</v>
+      </c>
+      <c r="C182" s="6">
+        <v>-748000</v>
+      </c>
+      <c r="D182" s="6">
+        <v>-878000</v>
+      </c>
+      <c r="E182" s="6">
+        <v>-943000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="7">
+        <v>211000</v>
+      </c>
+      <c r="C183" s="7">
+        <v>211000</v>
+      </c>
+      <c r="D183" s="7">
+        <v>211000</v>
+      </c>
+      <c r="E183" s="7">
+        <v>211000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="6">
+        <v>372000</v>
+      </c>
+      <c r="C184" s="6">
+        <v>379000</v>
+      </c>
+      <c r="D184" s="6">
+        <v>381000</v>
+      </c>
+      <c r="E184" s="6">
+        <v>381000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="8">
+        <f>B182+B183-B184</f>
+        <v>-790000</v>
+      </c>
+      <c r="C185" s="8">
+        <f>C182+C183-C184</f>
+        <v>-916000</v>
+      </c>
+      <c r="D185" s="8">
+        <f>D182+D183-D184</f>
+        <v>-1048000</v>
+      </c>
+      <c r="E185" s="8">
+        <f>E182+E183-E184</f>
+        <v>-1113000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1430" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136B07A6-3D06-40E4-A3E9-968761417917}"/>
+  <xr:revisionPtr revIDLastSave="1435" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59C0FAA-1821-4BBD-9A6C-E91FA421CAA2}"/>
   <bookViews>
-    <workbookView xWindow="12684" yWindow="612" windowWidth="10356" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9852" yWindow="1920" windowWidth="11844" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD Profit" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -147,10 +147,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3259,6 +3255,47 @@
         <v>-1113000</v>
       </c>
     </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="4">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="6">
+        <v>-974000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="7">
+        <v>211000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="6">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="8">
+        <f>B188+B189-B190</f>
+        <v>-1153000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1435" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59C0FAA-1821-4BBD-9A6C-E91FA421CAA2}"/>
+  <xr:revisionPtr revIDLastSave="1440" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2EDDD37-15C5-4AE4-AB46-6344FC2449DD}"/>
   <bookViews>
-    <workbookView xWindow="9852" yWindow="1920" windowWidth="11844" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18024" yWindow="1860" windowWidth="4980" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD Profit" sheetId="1" r:id="rId1"/>
@@ -147,6 +147,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +453,7 @@
   <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3262,6 +3266,9 @@
       <c r="B187" s="4">
         <v>45877</v>
       </c>
+      <c r="C187" s="4">
+        <v>45905</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
@@ -3270,6 +3277,9 @@
       <c r="B188" s="6">
         <v>-974000</v>
       </c>
+      <c r="C188" s="6">
+        <v>-962000</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
@@ -3278,6 +3288,9 @@
       <c r="B189" s="7">
         <v>211000</v>
       </c>
+      <c r="C189" s="7">
+        <v>256000</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
@@ -3286,6 +3299,9 @@
       <c r="B190" s="6">
         <v>390000</v>
       </c>
+      <c r="C190" s="6">
+        <v>421000</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
@@ -3294,6 +3310,10 @@
       <c r="B191" s="8">
         <f>B188+B189-B190</f>
         <v>-1153000</v>
+      </c>
+      <c r="C191" s="8">
+        <f>C188+C189-C190</f>
+        <v>-1127000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1440" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2EDDD37-15C5-4AE4-AB46-6344FC2449DD}"/>
+  <xr:revisionPtr revIDLastSave="1445" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A08221F-D33E-4043-A128-923E0B580F7E}"/>
   <bookViews>
-    <workbookView xWindow="18024" yWindow="1860" windowWidth="4980" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15084" yWindow="768" windowWidth="8112" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD Profit" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,6 +3269,9 @@
       <c r="C187" s="4">
         <v>45905</v>
       </c>
+      <c r="D187" s="4">
+        <v>45912</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
@@ -3280,6 +3283,9 @@
       <c r="C188" s="6">
         <v>-962000</v>
       </c>
+      <c r="D188" s="6">
+        <v>-965000</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
@@ -3291,6 +3297,9 @@
       <c r="C189" s="7">
         <v>256000</v>
       </c>
+      <c r="D189" s="7">
+        <v>319000</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
@@ -3302,6 +3311,9 @@
       <c r="C190" s="6">
         <v>421000</v>
       </c>
+      <c r="D190" s="6">
+        <v>430000</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
@@ -3314,6 +3326,10 @@
       <c r="C191" s="8">
         <f>C188+C189-C190</f>
         <v>-1127000</v>
+      </c>
+      <c r="D191" s="8">
+        <f>D188+D189-D190</f>
+        <v>-1076000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/06-YTD Profit.xlsx
+++ b/Excel/06-YTD Profit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1445" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A08221F-D33E-4043-A128-923E0B580F7E}"/>
+  <xr:revisionPtr revIDLastSave="1452" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D1E308-0B4E-45B6-9F35-8ABC406CA317}"/>
   <bookViews>
-    <workbookView xWindow="15084" yWindow="768" windowWidth="8112" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14376" yWindow="1572" windowWidth="8712" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD Profit" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3272,6 +3272,9 @@
       <c r="D187" s="4">
         <v>45912</v>
       </c>
+      <c r="E187" s="4">
+        <v>45926</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
@@ -3286,6 +3289,9 @@
       <c r="D188" s="6">
         <v>-965000</v>
       </c>
+      <c r="E188" s="6">
+        <v>-951000</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
@@ -3300,6 +3306,9 @@
       <c r="D189" s="7">
         <v>319000</v>
       </c>
+      <c r="E189" s="7">
+        <v>327000</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
@@ -3314,6 +3323,9 @@
       <c r="D190" s="6">
         <v>430000</v>
       </c>
+      <c r="E190" s="6">
+        <v>443000</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
@@ -3330,6 +3342,10 @@
       <c r="D191" s="8">
         <f>D188+D189-D190</f>
         <v>-1076000</v>
+      </c>
+      <c r="E191" s="8">
+        <f>E188+E189-E190</f>
+        <v>-1067000</v>
       </c>
     </row>
   </sheetData>
